--- a/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 11,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 31,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,15; 44,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; 17,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,66; 29,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,65; 27,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,77; 10,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,08; 26,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,4; 32,03</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,5%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,32; 88,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,87; 238,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,27; 351,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,71; 94,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,96; 172,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,19; 173,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,88; 63,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,48; 159,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,58; 199,29</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; 4,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,43; 17,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,44; 33,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 11,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,41; 18,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,26; 34,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 6,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,01; 15,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,97; 31,89</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,12%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,38; 24,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,35; 83,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,12; 164,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 49,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,04; 80,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,45; 148,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,29; 29,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,77; 69,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,88; 140,04</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 4,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,54; 15,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,42; 32,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 5,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 12,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,55; 33,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 3,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,15; 13,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,98; 31,23</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,48%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,66; 16,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,67; 58,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,9; 116,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,77; 17,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,29; 43,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,62; 110,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,45; 11,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,2; 43,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,31; 105,81</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 9,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,25; 15,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,23; 32,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 10,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,59; 20,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,96; 27,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 7,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,25; 16,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,36; 26,97</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,21%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 35,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,35; 60,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,79; 125,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 42,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,81; 81,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,14; 104,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 29,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,37; 63,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,22; 101,13</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,92</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,51</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; 2,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,85; 16,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,55; 31,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 6,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,94; 16,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,38; 32,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 3,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,2; 14,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,77; 30,5</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,27%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,49%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,13; 8,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,99; 50,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,55; 97,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,69; 18,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,13; 50,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,6; 95,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; 9,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,58; 44,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,23; 90,67</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,67</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,86</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 1,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,47; 13,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,83; 29,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 5,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 14,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,29; 28,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 3,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,64; 13,39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,13; 28,46</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,66%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,53; 7,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,93; 48,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,93; 105,07</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 18,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,56; 48,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,12; 94,59</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 10,29</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,26; 44,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,48; 96,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>11,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,47</t>
+          <t>28,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,82</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
+          <t>26,61</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,68</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,8</t>
+          <t>27,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 11,47</t>
+          <t>-6,51; 4,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 31,18</t>
+          <t>6,38; 17,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,15; 44,38</t>
+          <t>21,91; 33,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 17,99</t>
+          <t>1,0; 11,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 29,33</t>
+          <t>7,99; 19,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 27,67</t>
+          <t>21,6; 31,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 10,83</t>
+          <t>-1,41; 6,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,08; 26,59</t>
+          <t>7,99; 16,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,4; 32,03</t>
+          <t>23,34; 30,72</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,4%</t>
+          <t>-5,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>151,83%</t>
+          <t>121,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,93%</t>
+          <t>101,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>104,5%</t>
+          <t>110,09%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,32; 88,6</t>
+          <t>-24,92; 22,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 238,1</t>
+          <t>23,94; 87,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,27; 351,94</t>
+          <t>82,2; 166,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 94,93</t>
+          <t>3,47; 51,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 172,57</t>
+          <t>27,29; 81,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,19; 173,41</t>
+          <t>72,32; 134,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 63,5</t>
+          <t>-5,22; 26,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,48; 159,84</t>
+          <t>30,16; 70,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 199,29</t>
+          <t>86,08; 134,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,73</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,43</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,9</t>
+          <t>28,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,72</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,18</t>
+          <t>22,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 4,99</t>
+          <t>-4,99; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 17,02</t>
+          <t>5,54; 15,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,44; 33,42</t>
+          <t>-6,94; 30,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 11,74</t>
+          <t>-3,8; 5,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 18,9</t>
+          <t>3,81; 12,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,26; 34,0</t>
+          <t>24,16; 32,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,88</t>
+          <t>-3,15; 3,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 15,96</t>
+          <t>6,15; 13,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,97; 31,89</t>
+          <t>1,6; 29,86</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,06%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>116,18%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>107,31%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,23%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>111,12%</t>
+          <t>70,21%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 24,61</t>
+          <t>-15,66; 16,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 83,76</t>
+          <t>16,67; 58,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,12; 164,81</t>
+          <t>-22,43; 106,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 49,32</t>
+          <t>-10,77; 17,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,04; 80,4</t>
+          <t>11,29; 43,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,45; 148,99</t>
+          <t>68,27; 109,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 29,72</t>
+          <t>-9,45; 11,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,77; 69,84</t>
+          <t>18,2; 43,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84,88; 140,04</t>
+          <t>5,82; 97,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,64</t>
+          <t>25,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>14,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,03</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,56</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27,8</t>
+          <t>18,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 4,39</t>
+          <t>-2,03; 9,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 15,72</t>
+          <t>4,25; 15,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,42; 32,11</t>
+          <t>20,1; 32,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 5,25</t>
+          <t>-0,7; 10,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 12,85</t>
+          <t>9,59; 20,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,55; 33,21</t>
+          <t>-6,6; 26,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 3,54</t>
+          <t>0,21; 7,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,09</t>
+          <t>8,25; 16,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,98; 31,23</t>
+          <t>0,89; 26,32</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>90,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>64,93%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 16,24</t>
+          <t>-6,7; 35,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,67; 58,35</t>
+          <t>13,35; 60,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>53,9; 116,69</t>
+          <t>63,4; 125,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 17,4</t>
+          <t>-2,45; 42,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,29; 43,06</t>
+          <t>31,81; 81,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>69,62; 110,71</t>
+          <t>-21,72; 98,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 11,71</t>
+          <t>0,73; 29,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,2; 43,76</t>
+          <t>27,37; 63,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67,31; 105,81</t>
+          <t>4,96; 95,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,0</t>
+          <t>27,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,97</t>
+          <t>11,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,86</t>
+          <t>29,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,68</t>
+          <t>11,51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,05</t>
+          <t>28,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 9,33</t>
+          <t>-7,66; 2,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 15,69</t>
+          <t>5,85; 16,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,23; 32,02</t>
+          <t>22,41; 32,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,34</t>
+          <t>-2,97; 6,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,59; 20,51</t>
+          <t>6,94; 16,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 27,47</t>
+          <t>25,07; 36,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 7,7</t>
+          <t>-3,8; 3,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,25; 16,52</t>
+          <t>8,2; 14,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,36; 26,97</t>
+          <t>25,29; 33,68</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,88%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>78,21%</t>
+          <t>80,62%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 35,65</t>
+          <t>-20,13; 8,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,35; 60,35</t>
+          <t>14,99; 50,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>63,79; 125,99</t>
+          <t>59,5; 99,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 42,38</t>
+          <t>-7,69; 18,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,81; 81,57</t>
+          <t>18,13; 50,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,14; 104,24</t>
+          <t>64,27; 106,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 29,28</t>
+          <t>-10,12; 9,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,37; 63,16</t>
+          <t>21,58; 44,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,22; 101,13</t>
+          <t>66,7; 97,47</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,38</t>
+          <t>23,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,91</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,92</t>
+          <t>24,43</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27,24</t>
+          <t>24,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 2,6</t>
+          <t>-3,28; 1,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,85; 16,16</t>
+          <t>8,47; 13,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,55; 31,25</t>
+          <t>11,03; 28,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,34</t>
+          <t>0,06; 5,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,94; 16,79</t>
+          <t>9,36; 14,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,38; 32,07</t>
+          <t>14,83; 28,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,16</t>
+          <t>-0,64; 3,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,2; 14,97</t>
+          <t>9,64; 13,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,77; 30,5</t>
+          <t>16,41; 28,0</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-6,68%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>76,49%</t>
+          <t>78,32%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 8,11</t>
+          <t>-10,53; 7,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>14,99; 50,15</t>
+          <t>26,93; 48,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>57,55; 97,6</t>
+          <t>38,74; 99,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 18,92</t>
+          <t>0,19; 18,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>18,13; 50,13</t>
+          <t>28,56; 48,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>59,6; 95,02</t>
+          <t>47,34; 93,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 9,27</t>
+          <t>-2,07; 10,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>21,58; 44,28</t>
+          <t>30,26; 44,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>62,23; 90,67</t>
+          <t>54,1; 92,74</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>26,67</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>11,98</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>25,86</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>11,48</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>26,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 1,98</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>8,47; 13,83</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>22,83; 29,57</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 5,53</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>9,36; 14,53</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>20,29; 28,68</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 3,03</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>9,64; 13,39</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>23,13; 28,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-1,29%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>36,76%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>89,46%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>9,05%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>38,18%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>82,4%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>37,45%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>85,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 7,08</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>26,93; 48,48</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>73,93; 105,07</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 18,34</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>28,56; 48,14</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>64,12; 94,59</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 10,29</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>30,26; 44,75</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>74,48; 96,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,42</t>
+          <t>-6,09; 3,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 17,94</t>
+          <t>5,33; 17,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,91; 33,78</t>
+          <t>22,55; 34,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 11,71</t>
+          <t>0,57; 11,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 19,37</t>
+          <t>8,91; 19,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,6; 31,57</t>
+          <t>21,84; 31,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 6,0</t>
+          <t>-1,57; 6,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 16,33</t>
+          <t>8,43; 16,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 30,72</t>
+          <t>23,39; 30,92</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 22,75</t>
+          <t>-23,73; 18,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,94; 87,25</t>
+          <t>20,02; 81,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,2; 166,66</t>
+          <t>85,89; 173,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 51,43</t>
+          <t>1,92; 49,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,29; 81,79</t>
+          <t>29,54; 81,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,32; 134,27</t>
+          <t>73,76; 133,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 26,59</t>
+          <t>-5,62; 26,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,16; 70,93</t>
+          <t>30,96; 73,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,08; 134,72</t>
+          <t>86,29; 138,19</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 4,39</t>
+          <t>-5,78; 3,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 15,72</t>
+          <t>5,08; 15,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 30,89</t>
+          <t>-5,26; 31,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 5,25</t>
+          <t>-3,62; 5,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 12,85</t>
+          <t>3,88; 13,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,16; 32,9</t>
+          <t>24,36; 32,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 3,54</t>
+          <t>-3,15; 3,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,09</t>
+          <t>5,88; 12,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 29,86</t>
+          <t>2,36; 29,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 16,24</t>
+          <t>-18,12; 13,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 58,35</t>
+          <t>15,7; 56,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 106,23</t>
+          <t>-16,57; 106,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 17,4</t>
+          <t>-10,68; 18,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 43,06</t>
+          <t>10,93; 44,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,27; 109,2</t>
+          <t>68,42; 110,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 11,71</t>
+          <t>-9,54; 11,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 43,76</t>
+          <t>17,36; 42,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 97,25</t>
+          <t>9,46; 97,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 9,33</t>
+          <t>-2,25; 8,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 15,69</t>
+          <t>4,57; 17,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,1; 32,28</t>
+          <t>20,48; 32,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,34</t>
+          <t>-1,0; 9,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 20,51</t>
+          <t>9,16; 20,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 26,77</t>
+          <t>-12,5; 26,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 7,7</t>
+          <t>0,19; 8,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 16,52</t>
+          <t>8,73; 16,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 26,32</t>
+          <t>-0,85; 26,59</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 35,65</t>
+          <t>-6,97; 35,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,35; 60,35</t>
+          <t>14,58; 69,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63,4; 125,67</t>
+          <t>63,52; 129,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 42,38</t>
+          <t>-3,21; 37,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,81; 81,57</t>
+          <t>29,67; 83,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 98,85</t>
+          <t>-38,81; 95,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 29,28</t>
+          <t>0,65; 30,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,37; 63,16</t>
+          <t>29,08; 62,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,96; 95,77</t>
+          <t>-0,33; 96,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 2,6</t>
+          <t>-7,23; 2,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 16,16</t>
+          <t>5,86; 15,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,41; 32,19</t>
+          <t>22,46; 32,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,34</t>
+          <t>-3,09; 6,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 16,79</t>
+          <t>6,74; 16,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,07; 36,71</t>
+          <t>24,89; 36,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,16</t>
+          <t>-3,5; 3,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,2; 14,97</t>
+          <t>7,94; 14,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,29; 33,68</t>
+          <t>25,35; 33,56</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 8,11</t>
+          <t>-19,18; 9,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,99; 50,15</t>
+          <t>15,8; 48,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,5; 99,23</t>
+          <t>59,58; 102,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 18,92</t>
+          <t>-7,86; 17,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,13; 50,13</t>
+          <t>17,89; 49,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,27; 106,71</t>
+          <t>62,14; 105,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 9,27</t>
+          <t>-9,41; 9,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,58; 44,28</t>
+          <t>21,41; 44,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>66,7; 97,47</t>
+          <t>67,31; 99,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,98</t>
+          <t>-3,08; 2,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,83</t>
+          <t>8,32; 13,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,03; 28,88</t>
+          <t>11,73; 28,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,53</t>
+          <t>0,37; 5,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,53</t>
+          <t>9,32; 14,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,83; 28,97</t>
+          <t>13,16; 29,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,03</t>
+          <t>-0,42; 3,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,64; 13,39</t>
+          <t>9,49; 13,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,41; 28,0</t>
+          <t>16,89; 27,91</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 7,08</t>
+          <t>-9,82; 7,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>26,93; 48,48</t>
+          <t>26,74; 47,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>38,74; 99,31</t>
+          <t>38,95; 98,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,19; 18,34</t>
+          <t>1,0; 18,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,56; 48,14</t>
+          <t>28,64; 48,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>47,34; 93,96</t>
+          <t>42,6; 94,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 10,29</t>
+          <t>-1,28; 10,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>30,26; 44,75</t>
+          <t>29,96; 44,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>54,1; 92,74</t>
+          <t>56,86; 92,73</t>
         </is>
       </c>
     </row>
